--- a/03スプリントバックログ/Scrum4_スプリントバックログ第2回.xlsx
+++ b/03スプリントバックログ/Scrum4_スプリントバックログ第2回.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A878CAE6-0484-4A05-98E8-0DFC6BB2B033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0F1BD4-6924-4F27-9657-B3A596AE6983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -302,16 +302,104 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完了</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実施</t>
     <rPh sb="0" eb="2">
       <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像の枚数カウント</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像以外の本文や、地域、ハッシュタグを保存</t>
+    <rPh sb="0" eb="4">
+      <t>ガゾウイガイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホンブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像を保存</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動画の処理をする</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面のフロントエンド作成</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面のフロントエンド作成</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォローボタンのある画面のフロントエンド作成</t>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規投稿画面のフロントエンド作成（PC画面でのレイアウト調整）</t>
+    <rPh sb="0" eb="6">
+      <t>シンキトウコウガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -853,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="64" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -895,7 +983,9 @@
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
         <v>31</v>
@@ -908,7 +998,9 @@
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
         <v>30</v>
@@ -916,24 +1008,42 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
@@ -982,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -1024,13 +1134,15 @@
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
@@ -1111,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3909497-B355-4B79-B191-F012123903EB}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A2" zoomScale="63" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -1153,7 +1265,9 @@
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
         <v>11</v>
@@ -1238,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67616659-F6AB-4215-8818-4C85054E855C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="56" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -1280,7 +1394,9 @@
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
         <v>13</v>

--- a/03スプリントバックログ/Scrum4_スプリントバックログ第2回.xlsx
+++ b/03スプリントバックログ/Scrum4_スプリントバックログ第2回.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0F1BD4-6924-4F27-9657-B3A596AE6983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565383B0-DCDC-4A37-B146-7DAC01374F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -319,38 +319,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画像以外の本文や、地域、ハッシュタグを保存</t>
-    <rPh sb="0" eb="4">
-      <t>ガゾウイガイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ホンブン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>チイキ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画像を保存</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>動画の処理をする</t>
-    <rPh sb="0" eb="2">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -388,18 +362,119 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規投稿画面のフロントエンド作成（PC画面でのレイアウト調整）</t>
+    <t>PC画面でのレイアウト調整</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中井</t>
+    <rPh sb="0" eb="2">
+      <t>ナカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規投稿画面のフロントエンド作成</t>
     <rPh sb="0" eb="6">
       <t>シンキトウコウガメン</t>
     </rPh>
     <rPh sb="14" eb="16">
       <t>サクセイ</t>
     </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>チョウセイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像以外の本文、地域、ハッシュタを保存</t>
+    <rPh sb="0" eb="4">
+      <t>ガゾウイガイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホンブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像の処理をする</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報の登録</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更したプロフィールの情報の登録</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録してあるプロフィールの情報の呼び出し</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォローボタン押したらDBに設定する</t>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それを表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施中</t>
+    <rPh sb="0" eb="3">
+      <t>ジッシチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -809,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -942,7 +1017,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -991,19 +1066,19 @@
         <v>31</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -1012,33 +1087,37 @@
         <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
@@ -1047,10 +1126,16 @@
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="40" customHeight="1">
@@ -1092,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="62" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -1135,7 +1220,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
@@ -1147,21 +1232,31 @@
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8"/>
@@ -1223,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3909497-B355-4B79-B191-F012123903EB}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="63" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="63" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -1266,37 +1361,57 @@
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="40" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
@@ -1352,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67616659-F6AB-4215-8818-4C85054E855C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="56" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -1395,7 +1510,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
@@ -1407,27 +1522,43 @@
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="40" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">

--- a/03スプリントバックログ/Scrum4_スプリントバックログ第2回.xlsx
+++ b/03スプリントバックログ/Scrum4_スプリントバックログ第2回.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565383B0-DCDC-4A37-B146-7DAC01374F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B783B5D6-A752-FF4A-9F5A-10A91D4ABCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="1740" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -476,6 +476,14 @@
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6,13,14</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -884,11 +892,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
@@ -937,7 +945,9 @@
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="1">
@@ -952,7 +962,9 @@
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="1">
@@ -967,7 +979,9 @@
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="1">
@@ -982,7 +996,9 @@
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="1"/>
@@ -1020,7 +1036,7 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -1181,7 +1197,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -1322,7 +1338,7 @@
       <selection activeCell="E3" sqref="E3:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -1471,7 +1487,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>

--- a/03スプリントバックログ/Scrum4_スプリントバックログ第2回.xlsx
+++ b/03スプリントバックログ/Scrum4_スプリントバックログ第2回.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B783B5D6-A752-FF4A-9F5A-10A91D4ABCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2736BC73-ECA5-42EF-BAAE-823EBC102D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="1740" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -302,13 +302,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実施</t>
-    <rPh sb="0" eb="2">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画像の枚数カウント</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
@@ -465,13 +458,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実施中</t>
-    <rPh sb="0" eb="3">
-      <t>ジッシチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
@@ -484,6 +470,38 @@
   </si>
   <si>
     <t>6,13,14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90%(アイコン)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -578,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -608,6 +626,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -892,11 +913,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
@@ -963,7 +982,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
@@ -997,7 +1016,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
@@ -1032,11 +1051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView zoomScale="64" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -1075,9 +1092,11 @@
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="D3" s="8" t="s">
         <v>31</v>
       </c>
@@ -1090,27 +1109,31 @@
         <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
@@ -1118,14 +1141,14 @@
         <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
@@ -1133,7 +1156,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
@@ -1146,7 +1169,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
@@ -1194,10 +1217,10 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -1236,14 +1259,16 @@
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
@@ -1251,27 +1276,31 @@
         <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
@@ -1334,11 +1363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3909497-B355-4B79-B191-F012123903EB}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="63" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E5"/>
-    </sheetView>
+    <sheetView zoomScale="63" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -1377,14 +1404,16 @@
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
@@ -1392,14 +1421,16 @@
         <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
@@ -1407,14 +1438,14 @@
         <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>49</v>
+      <c r="E5" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
@@ -1422,13 +1453,15 @@
         <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8"/>
@@ -1483,11 +1516,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67616659-F6AB-4215-8818-4C85054E855C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView zoomScale="68" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -1526,9 +1557,11 @@
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1541,14 +1574,16 @@
         <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
@@ -1556,26 +1591,30 @@
         <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8"/>

--- a/03スプリントバックログ/Scrum4_スプリントバックログ第2回.xlsx
+++ b/03スプリントバックログ/Scrum4_スプリントバックログ第2回.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2736BC73-ECA5-42EF-BAAE-823EBC102D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD60FE1-DAD4-4608-97D0-715D8B3FABE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -622,13 +622,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -913,7 +913,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
@@ -929,10 +931,10 @@
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -1444,7 +1446,7 @@
       <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>52</v>
       </c>
     </row>
